--- a/biology/Botanique/Egerton_Gardens/Egerton_Gardens.xlsx
+++ b/biology/Botanique/Egerton_Gardens/Egerton_Gardens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Egerton Gardens est une rue et un jardin communautaire, appelé ici square, de Londres.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Située à Chelsea, cette rue se trouve à la hauteur de l’oratoire de Londres, de l’autre côté de Brompton Road.
 Le Victoria &amp; Albert Museum se trouve à proximité.
@@ -545,7 +559,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme la rue Egerton Crescent voisine, elle perpétue la mémoire de Francis Egerton (1736-1803), 3e duc de Bridgewater.
 </t>
@@ -576,10 +592,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une grande partie a été construite par Alexander Thorn et l'architecte était probablement Maurice Charles Hulbert[1].
-Historiquement, pendant plus de 800 ans, le secteur faisait partie de Brompton. Cette église est reconnue par le nom de sa paroisse Holy Trinity Brompton[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une grande partie a été construite par Alexander Thorn et l'architecte était probablement Maurice Charles Hulbert.
+Historiquement, pendant plus de 800 ans, le secteur faisait partie de Brompton. Cette église est reconnue par le nom de sa paroisse Holy Trinity Brompton.
 </t>
         </is>
       </c>
@@ -608,18 +626,54 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les maisons remarquables incluent Mortimer House .
 No 22-28 : hôtel Franklin, créé en réunissant quatre maisons.
-No 31 : bâtiment construit par Thomas Henry Smith pour le lieutenant-colonel William Wetherly, aujourd'hui divisé en appartements.
-Résidents notables
-No 1 : amiral Sir Michael Seymour.
+No 31 : bâtiment construit par Thomas Henry Smith pour le lieutenant-colonel William Wetherly, aujourd'hui divisé en appartements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Egerton_Gardens</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Egerton_Gardens</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Bâtiments remarquables et lieux de mémoire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Résidents notables</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>No 1 : amiral Sir Michael Seymour.
 No 17 : major-général Charles Edmund Webber, premier occupant de la rue, en 1887.
-No 31 : Sir Ronald Waterhouse, juge, a vécu dans un appartement entre 1957 et 1958 [3].
+No 31 : Sir Ronald Waterhouse, juge, a vécu dans un appartement entre 1957 et 1958 .
 No 38 : William Romilly, 2e baron de Romilly, décédé dans un incendie avec deux domestiques en 1891.
-No 41 : Sir Guy Stephenson, avocat, jusqu'à sa mort en 1930 [4].
-No 49 : Valentine Browne, 5ème comte de Kenmare en 1907 (au moins) [5].
+No 41 : Sir Guy Stephenson, avocat, jusqu'à sa mort en 1930 .
+No 49 : Valentine Browne, 5ème comte de Kenmare en 1907 (au moins) .
 No 53 : Florence Tyzack Parbury, citoyenne, auteure, musicienne, peintre et voyageuse.</t>
         </is>
       </c>
